--- a/Optimisation du Processus de Ventes.xlsx
+++ b/Optimisation du Processus de Ventes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CEFAD8-8818-47D3-8B56-2B937F10A79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44F0E19-5C4C-4B39-91C8-DAAE6AE7D053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1411,7 +1411,7 @@
   <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="30" customHeight="1"/>
